--- a/sentiment/identity_terms.xlsx
+++ b/sentiment/identity_terms.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ITC, 5th semester (Thesis)\Data\Sentiment_evaluation_corpus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ITC, 5th semester (Thesis)\Code\Github_code\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C647FE47-C885-4046-8CC2-1A8F7622EED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D8C772-074A-4589-A007-787A55963616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
-  <si>
-    <t>identity_term</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>gender</t>
   </si>
@@ -187,6 +184,147 @@
   </si>
   <si>
     <t>dette transkønnede barn</t>
+  </si>
+  <si>
+    <t>identity_term_EN</t>
+  </si>
+  <si>
+    <t>identity_term_DA</t>
+  </si>
+  <si>
+    <t>this woman</t>
+  </si>
+  <si>
+    <t>the girl</t>
+  </si>
+  <si>
+    <t>this lady</t>
+  </si>
+  <si>
+    <t>the wife</t>
+  </si>
+  <si>
+    <t>the feamle</t>
+  </si>
+  <si>
+    <t>the lass</t>
+  </si>
+  <si>
+    <t>my wife</t>
+  </si>
+  <si>
+    <t>my daughter</t>
+  </si>
+  <si>
+    <t>the daughter-in-law</t>
+  </si>
+  <si>
+    <t>my sister</t>
+  </si>
+  <si>
+    <t>this female cousin</t>
+  </si>
+  <si>
+    <t>this sister-in-law</t>
+  </si>
+  <si>
+    <t>my mother</t>
+  </si>
+  <si>
+    <t>my grandmother</t>
+  </si>
+  <si>
+    <t>my brother</t>
+  </si>
+  <si>
+    <t>my grandfather</t>
+  </si>
+  <si>
+    <t>my father</t>
+  </si>
+  <si>
+    <t>my husband</t>
+  </si>
+  <si>
+    <t>my son</t>
+  </si>
+  <si>
+    <t>the son-in-law</t>
+  </si>
+  <si>
+    <t>the husband</t>
+  </si>
+  <si>
+    <t>this male cousin</t>
+  </si>
+  <si>
+    <t>this gentleman</t>
+  </si>
+  <si>
+    <t>this man</t>
+  </si>
+  <si>
+    <t>this brother-in-law</t>
+  </si>
+  <si>
+    <t>this boy</t>
+  </si>
+  <si>
+    <t>this guy</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>the male</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>the hermaphrodite</t>
+  </si>
+  <si>
+    <t>the lgbt person</t>
+  </si>
+  <si>
+    <t>the androgynous person</t>
+  </si>
+  <si>
+    <t>this intersex individual</t>
+  </si>
+  <si>
+    <t>this transgender child</t>
+  </si>
+  <si>
+    <t>this transgender person</t>
+  </si>
+  <si>
+    <t>this transsexual employee</t>
+  </si>
+  <si>
+    <t>this bigender person</t>
+  </si>
+  <si>
+    <t>my genderqueer friend</t>
+  </si>
+  <si>
+    <t>my agender colleague</t>
+  </si>
+  <si>
+    <t>my non-binary parent</t>
+  </si>
+  <si>
+    <t>my queer partner</t>
+  </si>
+  <si>
+    <t>my non-binary child</t>
+  </si>
+  <si>
+    <t>the trans</t>
+  </si>
+  <si>
+    <t>the transvestite</t>
   </si>
 </sst>
 </file>
@@ -222,9 +360,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,407 +642,555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
